--- a/documents/RTM/Requirements Traceability Matrix v.2.xlsx
+++ b/documents/RTM/Requirements Traceability Matrix v.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="11355" windowHeight="8700" activeTab="1"/>
@@ -21,12 +21,12 @@
     <definedName name="Text9" localSheetId="1">'Traceability Template'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Traceability Template'!$A$1:$I$47</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Tracing requirements through testing is owned by the Project Manager.  However, the Business Analyst is responsible for insuring that the template is created and maintained.  The Project Team provides necessary input.</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>To aid in the completion of a Requirements Traceability template, please adhere to the following guidelines.  For additional assistance regarding templates or project deliverables please refer to the University Services Program Management Office.</t>
-  </si>
-  <si>
-    <t>Business Area</t>
-  </si>
-  <si>
-    <t>Business Analyst Lead</t>
   </si>
   <si>
     <t>Target Implementation Date</t>
@@ -567,7 +561,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -647,6 +641,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -671,7 +666,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,7 +710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -803,7 +807,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1143,26 +1147,26 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1172,12 +1176,12 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1187,12 +1191,12 @@
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1202,12 +1206,12 @@
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1217,12 +1221,12 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1232,12 +1236,12 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1247,12 +1251,12 @@
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1262,12 +1266,12 @@
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1641,8 +1645,8 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1651,7 +1655,7 @@
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
@@ -1671,7 +1675,7 @@
     </row>
     <row r="2" spans="1:9" s="20" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1683,104 +1687,100 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="11.25" customHeight="1" thickTop="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="38.25">
       <c r="A7" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1">
       <c r="A8" s="22"/>
       <c r="B8" s="21"/>
       <c r="C8" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -1791,16 +1791,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1812,16 +1812,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1833,16 +1833,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1854,16 +1854,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>85</v>
+        <v>33</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1875,16 +1875,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1896,16 +1896,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1917,16 +1917,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>85</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1938,16 +1938,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1959,16 +1959,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1980,16 +1980,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -2001,16 +2001,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>85</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2022,16 +2022,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>85</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -2042,7 +2042,7 @@
       <c r="A21" s="25"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="21"/>
@@ -2056,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
@@ -2074,16 +2074,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -2095,13 +2095,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2114,16 +2114,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2135,13 +2135,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -2154,16 +2154,16 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>84</v>
+        <v>50</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -2174,7 +2174,7 @@
       <c r="A28" s="25"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="21"/>
@@ -2188,16 +2188,16 @@
         <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2997,17 +2997,15 @@
       <c r="I101" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.55000000000000004" right="0.55000000000000004" top="0.55000000000000004" bottom="0.55000000000000004" header="0.5" footer="0.35"/>
